--- a/data/trans_camb/P0901-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>11.10519640806585</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.724854485394644</v>
+        <v>7.724854485394641</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.056721804924396</v>
@@ -664,7 +664,7 @@
         <v>7.956248296018359</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.411281815173401</v>
+        <v>7.411281815173404</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.483634946617923</v>
+        <v>1.254576151177011</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.852354882233436</v>
+        <v>1.425534401728106</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.584660541476937</v>
+        <v>3.627248602357623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.258795890636761</v>
+        <v>5.474685438478905</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.013939288168691</v>
+        <v>6.815242516009601</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.55865226536328</v>
+        <v>4.348386783814121</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.319023482625822</v>
+        <v>4.76845542086118</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.547325904105752</v>
+        <v>5.146734887107622</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.814491089921546</v>
+        <v>4.79728863830017</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.07601063346983</v>
+        <v>8.229001452024828</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.51117931912921</v>
+        <v>8.28645982546691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.4158699869258</v>
+        <v>10.33252305333552</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.6238569555796</v>
+        <v>13.3369152138966</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.49862533178357</v>
+        <v>15.17789346174938</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.01787709590742</v>
+        <v>10.9402451201083</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.672266560003735</v>
+        <v>9.761055953808821</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.63770907989121</v>
+        <v>10.6000807419903</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.807997913102424</v>
+        <v>9.828658171268536</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.8817748327646557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6133689150281777</v>
+        <v>0.6133689150281775</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.68041967338955</v>
@@ -769,7 +769,7 @@
         <v>0.7671533633655798</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7146068800047055</v>
+        <v>0.7146068800047057</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1396331321000213</v>
+        <v>0.1240135942159702</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1663995798383167</v>
+        <v>0.1194309217818056</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3516571791643645</v>
+        <v>0.3687080746847834</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3696355820357845</v>
+        <v>0.3843852459777404</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4905024906680565</v>
+        <v>0.4820673797356884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3190615985748101</v>
+        <v>0.2940458632200535</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3552654782428987</v>
+        <v>0.4166985112425531</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4717207230369379</v>
+        <v>0.4518973091587961</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4094724912953768</v>
+        <v>0.4246463407028788</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.181728221332648</v>
+        <v>1.230814345210033</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.240414083718031</v>
+        <v>1.226819903583741</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.531097180447557</v>
+        <v>1.557867559693482</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.251095732882721</v>
+        <v>1.225801596677445</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.441501238211231</v>
+        <v>1.436389912010868</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.002760228445284</v>
+        <v>1.023787861171213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.019117666404858</v>
+        <v>1.071357073439626</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.130442368403033</v>
+        <v>1.155132772026093</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.051059442847259</v>
+        <v>1.057363499313874</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1022623973101985</v>
+        <v>-0.1747062359104976</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.564778101755071</v>
+        <v>-2.75990813589928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7500177197355306</v>
+        <v>-0.7060846583991588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.427726840355945</v>
+        <v>2.461628801082183</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.919696660069934</v>
+        <v>-1.747883835064715</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.091335085562636</v>
+        <v>1.301186724767062</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.412802408068113</v>
+        <v>2.319811036509308</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.423594626036703</v>
+        <v>-1.167341280016835</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.092386175613856</v>
+        <v>1.301795524379281</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.866216000755188</v>
+        <v>5.806022107552327</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.892344113982671</v>
+        <v>2.821475043064788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.743158868599054</v>
+        <v>5.002947517181688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.2393393358814</v>
+        <v>9.650045971552224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.097676009421575</v>
+        <v>5.224325739794133</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.44455126485007</v>
+        <v>7.429688375266365</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.865345156588784</v>
+        <v>7.038895687712955</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.107917677291572</v>
+        <v>3.283525224268851</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.643327629160209</v>
+        <v>5.555648218705654</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01591089069031222</v>
+        <v>-0.01611072689961364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2387840518860935</v>
+        <v>-0.2504845107836405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0609903094888937</v>
+        <v>-0.06067234543216786</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1427241693676096</v>
+        <v>0.1474408507123833</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1123912672071804</v>
+        <v>-0.1007033132397337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05658854394664139</v>
+        <v>0.06952219844296009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1678984073678952</v>
+        <v>0.1630176036164246</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0981826002324554</v>
+        <v>-0.08539923745483438</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.07434275815484107</v>
+        <v>0.09397572404852055</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6770804498296656</v>
+        <v>0.6666590773681421</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3371967250081985</v>
+        <v>0.3451641887773837</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.573395428624794</v>
+        <v>0.5775258571880015</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7301813163680695</v>
+        <v>0.6805808076660664</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3459978071452627</v>
+        <v>0.3641998173872311</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5174923065902215</v>
+        <v>0.5134936107787362</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5801041432565965</v>
+        <v>0.5905629776432832</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2605862613418559</v>
+        <v>0.2834552998566017</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4723752691149075</v>
+        <v>0.4681457930271891</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.2422365491576844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.829354651581243</v>
+        <v>5.829354651581239</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9853441461240675</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.939203311437932</v>
+        <v>-1.836152441983209</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.330705148374419</v>
+        <v>-3.105760604309278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.613647590753863</v>
+        <v>2.079865845431465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.90149396334617</v>
+        <v>-3.069625687877663</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.098753719426176</v>
+        <v>-3.349169275997267</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.482183650790277</v>
+        <v>-1.602404591561312</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.447615784765425</v>
+        <v>-1.656078604928233</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.883358131699731</v>
+        <v>-2.230807927689509</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.386066252122579</v>
+        <v>1.325455372326958</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.370560746804465</v>
+        <v>4.144620733839968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.757042299705987</v>
+        <v>2.87966016649283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.631813445166893</v>
+        <v>9.165122263951545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.037507989548186</v>
+        <v>4.934070329414086</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.790768769801314</v>
+        <v>5.079617234316095</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.208870679221932</v>
+        <v>5.796949057996241</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.84750465547849</v>
+        <v>3.602702875459154</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.972682069235623</v>
+        <v>3.097571198255036</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.442009665705542</v>
+        <v>6.21368690440532</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.02805836127262607</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6752165986886588</v>
+        <v>0.6752165986886585</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05590464827348792</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1939139036144465</v>
+        <v>-0.1813503991947434</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3200583368827042</v>
+        <v>-0.3141019449318835</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2424225359798668</v>
+        <v>0.1984937801760022</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1445846986185927</v>
+        <v>-0.1634825023798105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1592375293665389</v>
+        <v>-0.1729281315858047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07292842263631361</v>
+        <v>-0.08180710795902027</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.100400156812255</v>
+        <v>-0.1214223648895889</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1347390712604141</v>
+        <v>-0.1568533126366632</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09349799875160628</v>
+        <v>0.09507610021085883</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6087207599218681</v>
+        <v>0.57158699509491</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4146532061378987</v>
+        <v>0.4085396415179758</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.402299264383434</v>
+        <v>1.257162234684119</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3283329116364274</v>
+        <v>0.3201872558423137</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3130446463444782</v>
+        <v>0.3228048991210875</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4082992459887094</v>
+        <v>0.3798312077770493</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3244841596065229</v>
+        <v>0.3018747941432188</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2560820903015726</v>
+        <v>0.2554236807473362</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5403284465420207</v>
+        <v>0.5221101866805756</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.702536771211194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.469682046992624</v>
+        <v>4.469682046992618</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.028235260645419</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6337882103435822</v>
+        <v>0.6482596493085088</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.140703710431478</v>
+        <v>-0.9667709561829871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.69378092695714</v>
+        <v>1.487384288290674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.626986722572664</v>
+        <v>-1.511363759659197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.071820974605756</v>
+        <v>-3.057590917841464</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4568427605600995</v>
+        <v>0.4494135840453179</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3548641063562627</v>
+        <v>0.3811807184248396</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9892186506895526</v>
+        <v>-1.000775174062313</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.086090520958647</v>
+        <v>1.811228559281017</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.251343949846786</v>
+        <v>6.381798528565636</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.301910245265437</v>
+        <v>4.457018593979913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.295049942119054</v>
+        <v>7.234375208357497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.559657761277405</v>
+        <v>5.418314530434209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.410835542145165</v>
+        <v>4.238952126346171</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.997337173541246</v>
+        <v>6.847908565300119</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.015981334296172</v>
+        <v>5.168612524565899</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.681571197253872</v>
+        <v>3.775482696056764</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.333184055344383</v>
+        <v>6.189927907387944</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1847311371882075</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4849759848788832</v>
+        <v>0.4849759848788825</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1115682299800612</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04529129577563153</v>
+        <v>0.0604580760783866</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1069283798397958</v>
+        <v>-0.0950568267231538</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.157769963862445</v>
+        <v>0.1369225452945642</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08436501163674784</v>
+        <v>-0.08256642841109942</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1535813458334458</v>
+        <v>-0.1554406289533609</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01900899178149407</v>
+        <v>0.02317131050967012</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02406882808548503</v>
+        <v>0.02557084711598055</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06374909802394665</v>
+        <v>-0.06852564941286535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.136882063294225</v>
+        <v>0.1150543562040306</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7712264967637784</v>
+        <v>0.8094380820208659</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5432308143518877</v>
+        <v>0.5516677833227062</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8934885177549714</v>
+        <v>0.9257658561290703</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3368107437623583</v>
+        <v>0.3294477588818117</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2652094849424844</v>
+        <v>0.2638973597584062</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4266895403588005</v>
+        <v>0.4155028902118887</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3877563749027541</v>
+        <v>0.4035473023955695</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2930251243545854</v>
+        <v>0.2831983592558298</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.492703161136671</v>
+        <v>0.4811855162951117</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.432501151726029</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.577255793165451</v>
+        <v>4.577255793165445</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.539120319192929</v>
@@ -1520,7 +1520,7 @@
         <v>2.31113824761065</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.527968514509811</v>
+        <v>4.527968514509809</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.298563550338757</v>
+        <v>1.370748874796823</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.04520759448077152</v>
+        <v>-0.001038307285822596</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.158952383124215</v>
+        <v>3.013543053369837</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.734067556078144</v>
+        <v>2.559005441067073</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.240724440680478</v>
+        <v>1.163472067881485</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.654553886944555</v>
+        <v>2.679763048753291</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.480290386325827</v>
+        <v>2.568800356026741</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.123178262466168</v>
+        <v>1.147597053400478</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.377992086614249</v>
+        <v>3.296423788582751</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.589483463392089</v>
+        <v>4.252033678890869</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.880439138748419</v>
+        <v>2.71797167514588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.219878075873453</v>
+        <v>6.042993123968861</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.515797794292186</v>
+        <v>6.351285710606258</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.885440220556901</v>
+        <v>4.875078660117615</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.138716462890463</v>
+        <v>6.179164516565421</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.921512337162006</v>
+        <v>5.03244144115583</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.522529759956926</v>
+        <v>3.516458996867702</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.672135739036706</v>
+        <v>5.646887019802486</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1583459769145086</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5059612268255935</v>
+        <v>0.5059612268255929</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2778056588334943</v>
@@ -1625,7 +1625,7 @@
         <v>0.181277673565847</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3551581560031468</v>
+        <v>0.3551581560031465</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1321063499317429</v>
+        <v>0.1368898742608085</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.001769762652516745</v>
+        <v>-0.00325898643605706</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3226525077794412</v>
+        <v>0.313848512525878</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1581256258926594</v>
+        <v>0.1510773848745415</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07318052425151643</v>
+        <v>0.06688011093801362</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1525761493434209</v>
+        <v>0.1538504734362491</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1869863638686634</v>
+        <v>0.1925119948409242</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.08245589237367171</v>
+        <v>0.08587799296129782</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2500797885093081</v>
+        <v>0.244851017617582</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5589044816303463</v>
+        <v>0.4977652752547382</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3574697548471603</v>
+        <v>0.3239161893156578</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7497653457567955</v>
+        <v>0.7116276469722552</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4142930705614236</v>
+        <v>0.4150155942082365</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3163766365427613</v>
+        <v>0.3141891671263219</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4082985330093878</v>
+        <v>0.4005734000930192</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4046125580960713</v>
+        <v>0.4142407936385257</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2862185249708309</v>
+        <v>0.2891754327408091</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4626344465479046</v>
+        <v>0.4629170530699095</v>
       </c>
     </row>
     <row r="34">
